--- a/Chroma FIR Filter/filter.xlsx
+++ b/Chroma FIR Filter/filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmsousa\Documents\GitHub\GC_Video_Adapter\Chroma FIR Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7912394-98A3-4245-A2FB-E40D9C425A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C35763-BEC8-4365-BAAF-33FA0A24FD29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,9 +368,6 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,11 +430,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -986,456 +986,456 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>-3</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>-2</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>-1</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="D2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>2</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="D6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21" t="s">
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21" t="s">
+      <c r="M7" s="20"/>
+      <c r="N7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="23" t="s">
+      <c r="O7" s="20"/>
+      <c r="P7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="24" t="s">
+      <c r="Q7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="V7" s="21" t="s">
+      <c r="U7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="W7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="X7" s="21" t="s">
+      <c r="W7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="T15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="U15" s="21" t="s">
+      <c r="U15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="V15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="V15" s="21" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1466,52 +1466,52 @@
       <c r="V20" s="26"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="K21" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="27"/>
+      <c r="K21" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="25"/>
       <c r="M21" s="26" t="s">
         <v>19</v>
       </c>
       <c r="N21" s="26"/>
-      <c r="O21" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="27"/>
+      <c r="O21" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="25"/>
       <c r="Q21" s="26" t="s">
         <v>20</v>
       </c>
       <c r="R21" s="26"/>
-      <c r="S21" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="T21" s="27"/>
+      <c r="S21" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="25"/>
       <c r="U21" s="26" t="s">
         <v>13</v>
       </c>
       <c r="V21" s="26"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="K22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="27"/>
+      <c r="K22" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="25"/>
       <c r="M22" s="26" t="s">
         <v>18</v>
       </c>
       <c r="N22" s="26"/>
-      <c r="O22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="27"/>
+      <c r="O22" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="25"/>
       <c r="Q22" s="26" t="s">
         <v>21</v>
       </c>
       <c r="R22" s="26"/>
-      <c r="S22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="T22" s="27"/>
+      <c r="S22" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="25"/>
       <c r="U22" s="26" t="s">
         <v>12</v>
       </c>
@@ -1519,6 +1519,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="S22:T22"/>
@@ -1528,16 +1538,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma FIR Filter/filter.xlsx
+++ b/Chroma FIR Filter/filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmsousa\Documents\GitHub\GC_Video_Adapter\Chroma FIR Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C35763-BEC8-4365-BAAF-33FA0A24FD29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240EC59C-4CFC-4E1A-BDB3-D52B0602BD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="27">
   <si>
     <t>pad</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Y5</t>
+  </si>
+  <si>
+    <t>Y7</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>Cr6</t>
+  </si>
+  <si>
+    <t>Cb6</t>
   </si>
 </sst>
 </file>
@@ -366,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -426,18 +438,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,15 +538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -547,7 +561,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5022850" y="1416050"/>
+          <a:off x="5003800" y="4311650"/>
           <a:ext cx="1803400" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -586,78 +600,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Arrow: Down 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE23550-87F8-436A-BB07-29FE1FF29079}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5727700" y="88900"/>
-          <a:ext cx="361950" cy="1054100"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-PT" sz="1100"/>
-            <a:t>current sample</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>18</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -673,7 +624,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5327650" y="2921000"/>
+          <a:off x="5867400" y="2921000"/>
           <a:ext cx="419100" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -973,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -982,21 +933,21 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="7" width="4.6328125" customWidth="1"/>
-    <col min="10" max="24" width="4.6328125" customWidth="1"/>
+    <col min="10" max="27" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14">
         <v>-3</v>
       </c>
@@ -1019,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1041,8 +992,56 @@
       <c r="G3" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1133,47 +1132,8 @@
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="T7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="U7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="V7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="W7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="X7" s="20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1195,8 +1155,40 @@
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="25"/>
+      <c r="T8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="V8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="25"/>
+      <c r="X8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y8" s="25"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1218,8 +1210,40 @@
       <c r="G9" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="23"/>
+      <c r="T9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="25"/>
+      <c r="V9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="23"/>
+      <c r="X9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y9" s="25"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1241,8 +1265,40 @@
       <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="J10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="23"/>
+      <c r="T10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="25"/>
+      <c r="V10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="23"/>
+      <c r="X10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="25"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1265,7 +1321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,44 +1412,8 @@
       <c r="G15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,105 +1459,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="K20" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="V20" s="26"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="K21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="26"/>
-      <c r="S21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="T21" s="25"/>
-      <c r="U21" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="V21" s="26"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="K22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="26"/>
-      <c r="S22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="T22" s="25"/>
-      <c r="U22" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="V22" s="26"/>
-    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="25">
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma FIR Filter/filter.xlsx
+++ b/Chroma FIR Filter/filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmsousa\Documents\GitHub\GC_Video_Adapter\Chroma FIR Filter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunos\source\repos\nunosousa\GC_Video_Adapter\Chroma FIR Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240EC59C-4CFC-4E1A-BDB3-D52B0602BD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F7D4F5-2B0B-45ED-9392-11B30B653ADB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="30">
   <si>
     <t>pad</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>Cb6</t>
+  </si>
+  <si>
+    <t>Y pipe</t>
+  </si>
+  <si>
+    <t>Cr pipe</t>
+  </si>
+  <si>
+    <t>Cb pipe</t>
   </si>
 </sst>
 </file>
@@ -378,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,9 +447,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,6 +458,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,13 +551,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -924,30 +936,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="4.6328125" customWidth="1"/>
-    <col min="10" max="27" width="4.6328125" customWidth="1"/>
+    <col min="1" max="7" width="4.5703125" customWidth="1"/>
+    <col min="10" max="27" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>-3</v>
       </c>
@@ -970,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1064,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1155,40 +1167,8 @@
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y8" s="25"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1210,40 +1190,43 @@
       <c r="G9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="25"/>
-      <c r="V9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y9" s="25"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="I9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="24"/>
+      <c r="P9" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="24"/>
+      <c r="V9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" s="24"/>
+      <c r="X9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y9" s="24"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1265,40 +1248,27 @@
       <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="23"/>
-      <c r="T10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="25"/>
-      <c r="V10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="23"/>
-      <c r="X10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y10" s="25"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="I10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="24"/>
+      <c r="T10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="24"/>
+      <c r="V10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="24"/>
+      <c r="X10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="24"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1320,8 +1290,27 @@
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="I11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="24"/>
+      <c r="T11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="24"/>
+      <c r="V11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="24"/>
+      <c r="X11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="24"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1435,8 +1424,40 @@
       <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="24"/>
+      <c r="P16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" s="24"/>
+      <c r="T16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="U16" s="24"/>
+      <c r="V16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="24"/>
+      <c r="X16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="24"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,34 +1479,116 @@
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="J17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="22"/>
+      <c r="T17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="24"/>
+      <c r="V17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17" s="22"/>
+      <c r="X17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="24"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="22"/>
+      <c r="T18" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="24"/>
+      <c r="V18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18" s="22"/>
+      <c r="X18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="41">
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
     <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma FIR Filter/filter.xlsx
+++ b/Chroma FIR Filter/filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunos\source\repos\nunosousa\GC_Video_Adapter\Chroma FIR Filter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmsousa\Documents\GitHub\GC_Video_Adapter\Chroma FIR Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F7D4F5-2B0B-45ED-9392-11B30B653ADB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C878CC-2641-43AD-A916-3F3DF03162E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +169,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -446,24 +452,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,6 +644,66 @@
         <a:xfrm>
           <a:off x="5867400" y="2921000"/>
           <a:ext cx="419100" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Arrow: Down 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D6D0EFA-09C1-4CE9-9527-0946B2660279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5765800" y="2159000"/>
+          <a:ext cx="412750" cy="488950"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -942,24 +1008,24 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="4.5703125" customWidth="1"/>
-    <col min="10" max="27" width="4.5703125" customWidth="1"/>
+    <col min="1" max="7" width="4.54296875" customWidth="1"/>
+    <col min="10" max="27" width="4.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14">
         <v>-3</v>
       </c>
@@ -982,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1004,56 +1070,56 @@
       <c r="G3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1122,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1145,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1190,43 +1256,43 @@
       <c r="G9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="23" t="s">
+      <c r="K9" s="26"/>
+      <c r="L9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="23" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="23" t="s">
+      <c r="O9" s="26"/>
+      <c r="P9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="23" t="s">
+      <c r="Q9" s="26"/>
+      <c r="R9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="23" t="s">
+      <c r="S9" s="26"/>
+      <c r="T9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="24"/>
-      <c r="V9" s="23" t="s">
+      <c r="U9" s="26"/>
+      <c r="V9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="24"/>
-      <c r="X9" s="23" t="s">
+      <c r="W9" s="26"/>
+      <c r="X9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="24"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y9" s="26"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1248,27 +1314,27 @@
       <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="L10" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="P10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="24"/>
-      <c r="T10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U10" s="24"/>
-      <c r="V10" s="23" t="s">
+      <c r="Q10" s="26"/>
+      <c r="T10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="W10" s="24"/>
-      <c r="X10" s="23" t="s">
+      <c r="U10" s="26"/>
+      <c r="X10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="24"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y10" s="26"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1290,27 +1356,27 @@
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="J11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="N11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="U11" s="24"/>
-      <c r="V11" s="23" t="s">
+      <c r="O11" s="26"/>
+      <c r="R11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="24"/>
-      <c r="X11" s="23" t="s">
+      <c r="S11" s="26"/>
+      <c r="V11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Y11" s="24"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W11" s="26"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,40 +1490,40 @@
       <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="23" t="s">
+      <c r="K16" s="26"/>
+      <c r="L16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="23" t="s">
+      <c r="M16" s="26"/>
+      <c r="N16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="24"/>
-      <c r="P16" s="23" t="s">
+      <c r="O16" s="26"/>
+      <c r="P16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="23" t="s">
+      <c r="Q16" s="26"/>
+      <c r="R16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="S16" s="24"/>
-      <c r="T16" s="23" t="s">
+      <c r="S16" s="26"/>
+      <c r="T16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="U16" s="24"/>
-      <c r="V16" s="23" t="s">
+      <c r="U16" s="26"/>
+      <c r="V16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="W16" s="24"/>
-      <c r="X16" s="23" t="s">
+      <c r="W16" s="26"/>
+      <c r="X16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="Y16" s="24"/>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y16" s="26"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1479,91 +1545,84 @@
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23" t="s">
+      <c r="K17" s="23"/>
+      <c r="L17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="23"/>
+      <c r="P17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="21" t="s">
+      <c r="Q17" s="26"/>
+      <c r="R17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="21" t="s">
+      <c r="S17" s="23"/>
+      <c r="T17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="26"/>
+      <c r="V17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="22"/>
-      <c r="T17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="24"/>
-      <c r="V17" s="21" t="s">
+      <c r="W17" s="23"/>
+      <c r="X17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="26"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="J18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="W17" s="22"/>
-      <c r="X17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="24"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J18" s="21" t="s">
+      <c r="K18" s="23"/>
+      <c r="L18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23" t="s">
+      <c r="O18" s="23"/>
+      <c r="P18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="21" t="s">
+      <c r="Q18" s="26"/>
+      <c r="R18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="22"/>
-      <c r="P18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="21" t="s">
+      <c r="S18" s="23"/>
+      <c r="T18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="26"/>
+      <c r="V18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S18" s="22"/>
-      <c r="T18" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="24"/>
-      <c r="V18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="W18" s="22"/>
-      <c r="X18" s="23" t="s">
+      <c r="W18" s="23"/>
+      <c r="X18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Y18" s="24"/>
+      <c r="Y18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="X16:Y16"/>
     <mergeCell ref="X17:Y17"/>
@@ -1580,15 +1639,22 @@
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X10:Y10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma FIR Filter/filter.xlsx
+++ b/Chroma FIR Filter/filter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmsousa\Documents\GitHub\GC_Video_Adapter\Chroma FIR Filter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunos\source\repos\nunosousa\GC_Video_Adapter\Chroma FIR Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C878CC-2641-43AD-A916-3F3DF03162E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97426BBA-D0CA-44ED-A08E-CC325A6266B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="31">
   <si>
     <t>pad</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Cb pipe</t>
+  </si>
+  <si>
+    <t>pixel clk</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -389,11 +392,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,22 +535,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,16 +643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -579,8 +667,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5003800" y="4311650"/>
-          <a:ext cx="1803400" cy="584200"/>
+          <a:off x="5003800" y="6178550"/>
+          <a:ext cx="1689100" cy="603250"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -626,8 +714,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -642,8 +730,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5867400" y="2921000"/>
-          <a:ext cx="419100" cy="495300"/>
+          <a:off x="5600700" y="723900"/>
+          <a:ext cx="400050" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -686,8 +774,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -702,8 +790,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5765800" y="2159000"/>
-          <a:ext cx="412750" cy="488950"/>
+          <a:off x="5588000" y="2235200"/>
+          <a:ext cx="400050" cy="336550"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1002,30 +1090,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="4.54296875" customWidth="1"/>
-    <col min="10" max="27" width="4.54296875" customWidth="1"/>
+    <col min="1" max="7" width="4.5703125" customWidth="1"/>
+    <col min="10" max="27" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>-3</v>
       </c>
@@ -1048,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1070,56 +1158,56 @@
       <c r="G3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="24" t="s">
+      <c r="X3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1142,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1165,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1187,8 +1275,9 @@
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="O6" s="27"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1210,8 +1299,26 @@
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="31"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="34"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1233,8 +1340,14 @@
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="L8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="X8" s="30"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1259,40 +1372,40 @@
       <c r="I9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="25" t="s">
+      <c r="K9" s="25"/>
+      <c r="L9" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="25" t="s">
+      <c r="M9" s="25"/>
+      <c r="N9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="25" t="s">
+      <c r="O9" s="25"/>
+      <c r="P9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="25" t="s">
+      <c r="Q9" s="25"/>
+      <c r="R9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="25" t="s">
+      <c r="S9" s="25"/>
+      <c r="T9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="26"/>
-      <c r="V9" s="25" t="s">
+      <c r="U9" s="25"/>
+      <c r="V9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="26"/>
-      <c r="X9" s="25" t="s">
+      <c r="W9" s="25"/>
+      <c r="X9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="26"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y9" s="25"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1317,24 +1430,24 @@
       <c r="I10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="P10" s="25" t="s">
+      <c r="M10" s="25"/>
+      <c r="P10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="26"/>
-      <c r="T10" s="25" t="s">
+      <c r="Q10" s="25"/>
+      <c r="T10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="26"/>
-      <c r="X10" s="25" t="s">
+      <c r="U10" s="25"/>
+      <c r="X10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="26"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y10" s="25"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1359,24 +1472,24 @@
       <c r="I11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="N11" s="25" t="s">
+      <c r="K11" s="25"/>
+      <c r="N11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="26"/>
-      <c r="R11" s="25" t="s">
+      <c r="O11" s="25"/>
+      <c r="R11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="26"/>
-      <c r="V11" s="25" t="s">
+      <c r="S11" s="25"/>
+      <c r="V11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="26"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,8 +1580,26 @@
       <c r="G15" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="31"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="34"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1490,171 +1621,153 @@
       <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="L16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="X16" s="30"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="25" t="s">
+      <c r="K17" s="25"/>
+      <c r="L17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="25" t="s">
+      <c r="M17" s="25"/>
+      <c r="N17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="25" t="s">
+      <c r="O17" s="25"/>
+      <c r="P17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="25" t="s">
+      <c r="Q17" s="25"/>
+      <c r="R17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="S16" s="26"/>
-      <c r="T16" s="25" t="s">
+      <c r="S17" s="25"/>
+      <c r="T17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="U16" s="26"/>
-      <c r="V16" s="25" t="s">
+      <c r="U17" s="25"/>
+      <c r="V17" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="W16" s="26"/>
-      <c r="X16" s="25" t="s">
+      <c r="W17" s="25"/>
+      <c r="X17" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Y16" s="26"/>
-    </row>
-    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22" t="s">
+      <c r="Y17" s="25"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="25"/>
+      <c r="N18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="25"/>
+      <c r="R18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="25"/>
+      <c r="V18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="25"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J19" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="N19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="25"/>
+      <c r="R19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="25"/>
+      <c r="V19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="25"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J29" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="22" t="s">
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="23"/>
-      <c r="T17" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="26"/>
-      <c r="V17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="W17" s="23"/>
-      <c r="X17" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y17" s="26"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="J18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="23"/>
-      <c r="P18" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="23"/>
-      <c r="T18" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="26"/>
-      <c r="V18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="W18" s="23"/>
-      <c r="X18" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y18" s="26"/>
+      <c r="K30" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
+  <mergeCells count="35">
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X10:Y10"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma FIR Filter/filter.xlsx
+++ b/Chroma FIR Filter/filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunos\source\repos\nunosousa\GC_Video_Adapter\Chroma FIR Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97426BBA-D0CA-44ED-A08E-CC325A6266B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A4ECA-F14B-4786-A82E-FF21F29A2E3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -433,24 +433,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -460,7 +445,42 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
       </left>
       <right/>
       <top style="thin">
@@ -473,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,29 +556,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -1103,15 +1125,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
@@ -1275,7 +1297,7 @@
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="27"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1302,21 +1324,22 @@
       <c r="I7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="31"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="34"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="36"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1340,12 +1363,12 @@
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="X8" s="30"/>
+      <c r="L8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="X8" s="25"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1372,38 +1395,38 @@
       <c r="I9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="24" t="s">
+      <c r="K9" s="28"/>
+      <c r="L9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24" t="s">
+      <c r="M9" s="28"/>
+      <c r="N9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="24" t="s">
+      <c r="O9" s="28"/>
+      <c r="P9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="24" t="s">
+      <c r="Q9" s="28"/>
+      <c r="R9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="24" t="s">
+      <c r="S9" s="28"/>
+      <c r="T9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="25"/>
-      <c r="V9" s="24" t="s">
+      <c r="U9" s="28"/>
+      <c r="V9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="24" t="s">
+      <c r="W9" s="28"/>
+      <c r="X9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="25"/>
+      <c r="Y9" s="28"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1430,22 +1453,22 @@
       <c r="I10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="P10" s="24" t="s">
+      <c r="M10" s="28"/>
+      <c r="P10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="T10" s="24" t="s">
+      <c r="Q10" s="28"/>
+      <c r="T10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="25"/>
-      <c r="X10" s="24" t="s">
+      <c r="U10" s="28"/>
+      <c r="X10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="25"/>
+      <c r="Y10" s="28"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1472,22 +1495,22 @@
       <c r="I11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="N11" s="24" t="s">
+      <c r="K11" s="28"/>
+      <c r="N11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="R11" s="24" t="s">
+      <c r="O11" s="28"/>
+      <c r="R11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="25"/>
-      <c r="V11" s="24" t="s">
+      <c r="S11" s="28"/>
+      <c r="V11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="25"/>
+      <c r="W11" s="28"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1583,21 +1606,21 @@
       <c r="I15" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="31"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="34"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="35"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1621,12 +1644,12 @@
       <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="X16" s="30"/>
+      <c r="L16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="X16" s="25"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1650,105 +1673,93 @@
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="24" t="s">
+      <c r="K17" s="28"/>
+      <c r="L17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24" t="s">
+      <c r="M17" s="28"/>
+      <c r="N17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="25"/>
-      <c r="P17" s="24" t="s">
+      <c r="O17" s="28"/>
+      <c r="P17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="24" t="s">
+      <c r="Q17" s="28"/>
+      <c r="R17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="25"/>
-      <c r="T17" s="24" t="s">
+      <c r="S17" s="28"/>
+      <c r="T17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="U17" s="25"/>
-      <c r="V17" s="24" t="s">
+      <c r="U17" s="28"/>
+      <c r="V17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="W17" s="25"/>
-      <c r="X17" s="24" t="s">
+      <c r="W17" s="28"/>
+      <c r="X17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="Y17" s="25"/>
+      <c r="Y17" s="28"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="N18" s="24" t="s">
+      <c r="K18" s="28"/>
+      <c r="N18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="25"/>
-      <c r="R18" s="24" t="s">
+      <c r="O18" s="28"/>
+      <c r="R18" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="25"/>
-      <c r="V18" s="24" t="s">
+      <c r="S18" s="28"/>
+      <c r="V18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="W18" s="25"/>
+      <c r="W18" s="28"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="N19" s="24" t="s">
+      <c r="K19" s="28"/>
+      <c r="N19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="25"/>
-      <c r="R19" s="24" t="s">
+      <c r="O19" s="28"/>
+      <c r="R19" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="S19" s="25"/>
-      <c r="V19" s="24" t="s">
+      <c r="S19" s="28"/>
+      <c r="V19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="W19" s="25"/>
+      <c r="W19" s="28"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="23"/>
+      <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="23"/>
+      <c r="K30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="V18:W18"/>
@@ -1764,10 +1775,22 @@
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X10:Y10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma FIR Filter/filter.xlsx
+++ b/Chroma FIR Filter/filter.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunos\source\repos\nunosousa\GC_Video_Adapter\Chroma FIR Filter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmsousa\Documents\GitHub\GC_Video_Adapter\Chroma FIR Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A4ECA-F14B-4786-A82E-FF21F29A2E3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99015D5B-73B0-4E05-9516-BC06DFD09DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Output buffers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="46">
   <si>
     <t>pad</t>
   </si>
@@ -118,13 +119,58 @@
   </si>
   <si>
     <t>pixel clk</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>CbCr raw sample</t>
+  </si>
+  <si>
+    <t>CbCr filt sample</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Latency samples after mid filter</t>
+  </si>
+  <si>
+    <t>tap +1</t>
+  </si>
+  <si>
+    <t>tap +2</t>
+  </si>
+  <si>
+    <t>tap +3</t>
+  </si>
+  <si>
+    <t>tap +4</t>
+  </si>
+  <si>
+    <t>tap +5</t>
+  </si>
+  <si>
+    <t>tap +6</t>
+  </si>
+  <si>
+    <t>tap +7</t>
+  </si>
+  <si>
+    <t>tap +8</t>
+  </si>
+  <si>
+    <t>tap -1</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +188,26 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -489,11 +555,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,26 +693,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,6 +1047,74 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6C93A7-9A8D-4635-BFCA-13FB3A94213E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196850" y="1885950"/>
+          <a:ext cx="736600" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>Data flow</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1114,28 +1388,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="4.5703125" customWidth="1"/>
-    <col min="10" max="27" width="4.5703125" customWidth="1"/>
+    <col min="1" max="7" width="4.54296875" customWidth="1"/>
+    <col min="10" max="27" width="4.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14">
         <v>-3</v>
       </c>
@@ -1158,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1252,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1275,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1573,7 @@
       </c>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1325,23 +1599,23 @@
         <v>30</v>
       </c>
       <c r="J7" s="22"/>
-      <c r="K7" s="33"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="33"/>
+      <c r="M7" s="28"/>
       <c r="N7" s="24"/>
-      <c r="O7" s="33"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="23"/>
-      <c r="Q7" s="33"/>
+      <c r="Q7" s="28"/>
       <c r="R7" s="23"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="34"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29"/>
       <c r="U7" s="26"/>
       <c r="V7" s="24"/>
-      <c r="W7" s="33"/>
+      <c r="W7" s="28"/>
       <c r="X7" s="24"/>
-      <c r="Y7" s="36"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y7" s="31"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1370,7 +1644,7 @@
       <c r="V8" s="25"/>
       <c r="X8" s="25"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1395,40 +1669,40 @@
       <c r="I9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="27" t="s">
+      <c r="K9" s="35"/>
+      <c r="L9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27" t="s">
+      <c r="M9" s="35"/>
+      <c r="N9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="27" t="s">
+      <c r="O9" s="35"/>
+      <c r="P9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="27" t="s">
+      <c r="Q9" s="35"/>
+      <c r="R9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="27" t="s">
+      <c r="S9" s="35"/>
+      <c r="T9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="28"/>
-      <c r="V9" s="27" t="s">
+      <c r="U9" s="35"/>
+      <c r="V9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="28"/>
-      <c r="X9" s="27" t="s">
+      <c r="W9" s="35"/>
+      <c r="X9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="28"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y9" s="35"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1453,24 +1727,24 @@
       <c r="I10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="P10" s="27" t="s">
+      <c r="M10" s="35"/>
+      <c r="P10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="28"/>
-      <c r="T10" s="27" t="s">
+      <c r="Q10" s="35"/>
+      <c r="T10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="28"/>
-      <c r="X10" s="27" t="s">
+      <c r="U10" s="35"/>
+      <c r="X10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="28"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y10" s="35"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1495,24 +1769,24 @@
       <c r="I11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="N11" s="27" t="s">
+      <c r="K11" s="35"/>
+      <c r="N11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="R11" s="27" t="s">
+      <c r="O11" s="35"/>
+      <c r="R11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="28"/>
-      <c r="V11" s="27" t="s">
+      <c r="S11" s="35"/>
+      <c r="V11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="28"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W11" s="35"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1606,23 +1880,23 @@
       <c r="I15" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="32"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="26"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="33"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="24"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="23"/>
-      <c r="S15" s="33"/>
-      <c r="U15" s="33"/>
+      <c r="S15" s="28"/>
+      <c r="U15" s="28"/>
       <c r="V15" s="24"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="35"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W15" s="28"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="30"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1925,7 @@
       <c r="V16" s="25"/>
       <c r="X16" s="25"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,94 +1947,106 @@
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="27" t="s">
+      <c r="K17" s="35"/>
+      <c r="L17" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="27" t="s">
+      <c r="M17" s="35"/>
+      <c r="N17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="27" t="s">
+      <c r="O17" s="35"/>
+      <c r="P17" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="27" t="s">
+      <c r="Q17" s="35"/>
+      <c r="R17" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="28"/>
-      <c r="T17" s="27" t="s">
+      <c r="S17" s="35"/>
+      <c r="T17" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U17" s="28"/>
-      <c r="V17" s="27" t="s">
+      <c r="U17" s="35"/>
+      <c r="V17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="W17" s="28"/>
-      <c r="X17" s="27" t="s">
+      <c r="W17" s="35"/>
+      <c r="X17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="Y17" s="28"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J18" s="27" t="s">
+      <c r="Y17" s="35"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="J18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="N18" s="27" t="s">
+      <c r="K18" s="35"/>
+      <c r="N18" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="28"/>
-      <c r="R18" s="27" t="s">
+      <c r="O18" s="35"/>
+      <c r="R18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="28"/>
-      <c r="V18" s="27" t="s">
+      <c r="S18" s="35"/>
+      <c r="V18" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="W18" s="28"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J19" s="27" t="s">
+      <c r="W18" s="35"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="J19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="28"/>
-      <c r="N19" s="27" t="s">
+      <c r="K19" s="35"/>
+      <c r="N19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="28"/>
-      <c r="R19" s="27" t="s">
+      <c r="O19" s="35"/>
+      <c r="R19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="S19" s="28"/>
-      <c r="V19" s="27" t="s">
+      <c r="S19" s="35"/>
+      <c r="V19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="W19" s="28"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J29" s="30" t="s">
+      <c r="W19" s="35"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="J29" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="31"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J30" s="30" t="s">
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="J30" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="31"/>
+      <c r="K30" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="V18:W18"/>
     <mergeCell ref="V19:W19"/>
@@ -1773,24 +2059,801 @@
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X10:Y10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF60DA3-7897-44BA-8AAF-E17E7298A90D}">
+  <dimension ref="A2:T35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="18" width="4.6328125" customWidth="1"/>
+    <col min="19" max="19" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B2" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="31"/>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="38"/>
+      <c r="E3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="Q3" s="25"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B4" s="39"/>
+      <c r="C4" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="35"/>
+      <c r="O4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="35"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B5" s="39"/>
+      <c r="E5" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="I5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="M5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="35"/>
+      <c r="Q5" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="35"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="39"/>
+      <c r="C6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="G6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="K6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="O6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="35"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B7" s="39"/>
+    </row>
+    <row r="8" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="64"/>
+      <c r="S8" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B9" s="38"/>
+      <c r="C9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="S9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B10" s="38"/>
+      <c r="C10" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="38"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="38"/>
+      <c r="C12" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="38"/>
+      <c r="E13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="38"/>
+      <c r="C14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B15" s="38"/>
+      <c r="C15" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="57"/>
+      <c r="G15" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="S15" s="48">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B16" s="38"/>
+      <c r="C16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="52"/>
+    </row>
+    <row r="17" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="38"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B18" s="38"/>
+      <c r="C18" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="60"/>
+      <c r="S18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B19" s="38"/>
+      <c r="E19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="I19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="38"/>
+      <c r="C20" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B21" s="38"/>
+      <c r="C21" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="60"/>
+      <c r="K21" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="60"/>
+      <c r="S21" s="48">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B22" s="38"/>
+      <c r="C22" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="K22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="38"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B24" s="38"/>
+      <c r="C24" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="60"/>
+      <c r="K24" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="60"/>
+      <c r="M24" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="60"/>
+      <c r="S24" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B25" s="38"/>
+      <c r="E25" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="I25" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="M25" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="35"/>
+    </row>
+    <row r="26" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="38"/>
+      <c r="C26" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="45"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B27" s="38"/>
+      <c r="C27" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="60"/>
+      <c r="K27" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="60"/>
+      <c r="M27" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="60"/>
+      <c r="O27" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="60"/>
+      <c r="S27" s="48">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B28" s="38"/>
+      <c r="C28" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="G28" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="52"/>
+      <c r="K28" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="35"/>
+      <c r="O28" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="35"/>
+    </row>
+    <row r="29" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="38"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="54"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="45"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="45"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B30" s="38"/>
+      <c r="C30" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="41"/>
+      <c r="I30" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="60"/>
+      <c r="K30" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="60"/>
+      <c r="M30" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="60"/>
+      <c r="O30" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30" s="60"/>
+      <c r="S30" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B31" s="38"/>
+      <c r="E31" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="I31" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="35"/>
+      <c r="M31" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="35"/>
+      <c r="Q31" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" s="35"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B32" s="38"/>
+      <c r="C32" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="G32" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="K32" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="35"/>
+      <c r="O32" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" s="35"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="38"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="38"/>
+      <c r="C35" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="97">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chroma FIR Filter/filter.xlsx
+++ b/Chroma FIR Filter/filter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nmsousa\Documents\GitHub\GC_Video_Adapter\Chroma FIR Filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99015D5B-73B0-4E05-9516-BC06DFD09DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B086D1B-0587-4528-9039-492D4B46BD0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="46">
   <si>
     <t>pad</t>
   </si>
@@ -698,95 +698,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,13 +869,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -934,13 +932,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -994,13 +992,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1020,6 +1018,66 @@
         <a:xfrm>
           <a:off x="5588000" y="2235200"/>
           <a:ext cx="400050" cy="336550"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-PT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Arrow: Down 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F489700-9866-4642-A66E-3B2C07EFBC2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="3651250"/>
+          <a:ext cx="412750" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1386,30 +1444,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="7" width="4.54296875" customWidth="1"/>
-    <col min="10" max="27" width="4.54296875" customWidth="1"/>
+    <col min="10" max="29" width="4.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14">
         <v>-3</v>
       </c>
@@ -1432,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1454,56 +1512,56 @@
       <c r="G3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="L3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="M3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="N3" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>22</v>
       </c>
       <c r="P3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="S3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="T3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="U3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="V3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="W3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="X3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="Y3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="Z3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="AA3" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1526,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1549,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1571,9 +1629,9 @@
       <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="22"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1598,24 +1656,24 @@
       <c r="I7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="28"/>
-      <c r="N7" s="24"/>
+      <c r="N7" s="23"/>
       <c r="O7" s="28"/>
-      <c r="P7" s="23"/>
+      <c r="P7" s="24"/>
       <c r="Q7" s="28"/>
       <c r="R7" s="23"/>
       <c r="S7" s="28"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="28"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="26"/>
       <c r="X7" s="24"/>
-      <c r="Y7" s="31"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="31"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1637,14 +1695,14 @@
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="25"/>
       <c r="N8" s="25"/>
       <c r="P8" s="25"/>
-      <c r="T8" s="25"/>
+      <c r="R8" s="25"/>
       <c r="V8" s="25"/>
       <c r="X8" s="25"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z8" s="25"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1669,40 +1727,42 @@
       <c r="I9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="34" t="s">
+      <c r="M9" s="40"/>
+      <c r="N9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="34" t="s">
+      <c r="O9" s="40"/>
+      <c r="P9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="34" t="s">
+      <c r="Q9" s="40"/>
+      <c r="R9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="34" t="s">
+      <c r="S9" s="40"/>
+      <c r="T9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="34" t="s">
+      <c r="U9" s="40"/>
+      <c r="V9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="35"/>
-      <c r="V9" s="34" t="s">
+      <c r="W9" s="40"/>
+      <c r="X9" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="34" t="s">
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="35"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA9" s="40"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1727,24 +1787,26 @@
       <c r="I10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="N10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="P10" s="34" t="s">
+      <c r="O10" s="40"/>
+      <c r="R10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="35"/>
-      <c r="T10" s="34" t="s">
+      <c r="S10" s="40"/>
+      <c r="V10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="35"/>
-      <c r="X10" s="34" t="s">
+      <c r="W10" s="40"/>
+      <c r="Z10" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="35"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="AA10" s="40"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1769,24 +1831,26 @@
       <c r="I11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="N11" s="34" t="s">
+      <c r="M11" s="40"/>
+      <c r="P11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="R11" s="34" t="s">
+      <c r="Q11" s="40"/>
+      <c r="T11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="35"/>
-      <c r="V11" s="34" t="s">
+      <c r="U11" s="40"/>
+      <c r="X11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="W11" s="35"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y11" s="40"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1855,7 +1919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1880,23 +1944,23 @@
       <c r="I15" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="24"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="28"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="23"/>
       <c r="U15" s="28"/>
-      <c r="V15" s="24"/>
       <c r="W15" s="28"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="30"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X15" s="24"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="30"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1918,14 +1982,14 @@
       <c r="G16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="25"/>
       <c r="N16" s="25"/>
       <c r="P16" s="25"/>
-      <c r="T16" s="25"/>
+      <c r="R16" s="25"/>
       <c r="V16" s="25"/>
       <c r="X16" s="25"/>
-    </row>
-    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Z16" s="25"/>
+    </row>
+    <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1947,124 +2011,248 @@
       <c r="G17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="L17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="34" t="s">
+      <c r="M17" s="40"/>
+      <c r="N17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="34" t="s">
+      <c r="O17" s="40"/>
+      <c r="P17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="34" t="s">
+      <c r="Q17" s="40"/>
+      <c r="R17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="34" t="s">
+      <c r="S17" s="40"/>
+      <c r="T17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="35"/>
-      <c r="T17" s="34" t="s">
+      <c r="U17" s="40"/>
+      <c r="V17" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="U17" s="35"/>
-      <c r="V17" s="34" t="s">
+      <c r="W17" s="40"/>
+      <c r="X17" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="W17" s="35"/>
-      <c r="X17" s="34" t="s">
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Y17" s="35"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="J18" s="34" t="s">
+      <c r="AA17" s="40"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L18" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="35"/>
-      <c r="N18" s="34" t="s">
+      <c r="M18" s="40"/>
+      <c r="P18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="35"/>
-      <c r="R18" s="34" t="s">
+      <c r="Q18" s="40"/>
+      <c r="T18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="35"/>
-      <c r="V18" s="34" t="s">
+      <c r="U18" s="40"/>
+      <c r="X18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="W18" s="35"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="J19" s="34" t="s">
+      <c r="Y18" s="40"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L19" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="N19" s="34" t="s">
+      <c r="M19" s="40"/>
+      <c r="P19" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="35"/>
-      <c r="R19" s="34" t="s">
+      <c r="Q19" s="40"/>
+      <c r="T19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="S19" s="35"/>
-      <c r="V19" s="34" t="s">
+      <c r="U19" s="40"/>
+      <c r="X19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="W19" s="35"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="J29" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="33"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="J30" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="33"/>
+      <c r="Y19" s="40"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="30"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="N24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Z24" s="25"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="J25" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="W25" s="63"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="J26" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="J27" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="J9:K9"/>
+  <mergeCells count="51">
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="P11:Q11"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2077,7 +2265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF60DA3-7897-44BA-8AAF-E17E7298A90D}">
   <dimension ref="A2:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2087,7 +2275,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="22"/>
@@ -2111,7 +2299,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="38"/>
+      <c r="B3" s="32"/>
       <c r="E3" s="25"/>
       <c r="G3" s="25"/>
       <c r="I3" s="25"/>
@@ -2120,133 +2308,133 @@
       <c r="Q3" s="25"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B4" s="39"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="34" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="34" t="s">
+      <c r="H4" s="40"/>
+      <c r="I4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="34" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="34" t="s">
+      <c r="L4" s="40"/>
+      <c r="M4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="34" t="s">
+      <c r="N4" s="40"/>
+      <c r="O4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="34" t="s">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="35"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="39"/>
-      <c r="E5" s="34" t="s">
+      <c r="B5" s="33"/>
+      <c r="E5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="I5" s="34" t="s">
+      <c r="F5" s="40"/>
+      <c r="I5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="M5" s="34" t="s">
+      <c r="J5" s="40"/>
+      <c r="M5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="Q5" s="34" t="s">
+      <c r="N5" s="40"/>
+      <c r="Q5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="R5" s="35"/>
+      <c r="R5" s="40"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="39"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="G6" s="34" t="s">
+      <c r="D6" s="40"/>
+      <c r="G6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="K6" s="34" t="s">
+      <c r="H6" s="40"/>
+      <c r="K6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="35"/>
-      <c r="O6" s="34" t="s">
+      <c r="L6" s="40"/>
+      <c r="O6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="35"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="39"/>
+      <c r="B7" s="33"/>
     </row>
     <row r="8" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64" t="s">
+      <c r="F8" s="42"/>
+      <c r="G8" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64" t="s">
+      <c r="H8" s="42"/>
+      <c r="I8" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64" t="s">
+      <c r="J8" s="42"/>
+      <c r="K8" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64" t="s">
+      <c r="L8" s="42"/>
+      <c r="M8" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64" t="s">
+      <c r="N8" s="42"/>
+      <c r="O8" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64" t="s">
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="64"/>
-      <c r="S8" s="58" t="s">
+      <c r="R8" s="42"/>
+      <c r="S8" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="58" t="s">
+      <c r="T8" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B9" s="38"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="49"/>
       <c r="S9" t="s">
         <v>34</v>
       </c>
@@ -2255,41 +2443,41 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B10" s="38"/>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="38"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B12" s="38"/>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="40" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="49"/>
       <c r="S12" t="s">
         <v>34</v>
       </c>
@@ -2298,48 +2486,48 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B13" s="38"/>
-      <c r="E13" s="34" t="s">
+      <c r="B13" s="32"/>
+      <c r="E13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="38"/>
-      <c r="C14" s="46" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B15" s="38"/>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="56" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="49" t="s">
+      <c r="F15" s="61"/>
+      <c r="G15" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="S15" s="48">
+      <c r="H15" s="58"/>
+      <c r="S15" s="36">
         <v>0</v>
       </c>
       <c r="T15" t="s">
@@ -2347,121 +2535,121 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B16" s="38"/>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="51" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="52"/>
     </row>
     <row r="17" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="38"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="53" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B18" s="38"/>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="40" t="s">
+      <c r="D18" s="49"/>
+      <c r="E18" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="40" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="59" t="s">
+      <c r="H18" s="49"/>
+      <c r="I18" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="60"/>
+      <c r="J18" s="47"/>
       <c r="S18" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="48">
+      <c r="T18" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B19" s="38"/>
-      <c r="E19" s="34" t="s">
+      <c r="B19" s="32"/>
+      <c r="E19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="I19" s="34" t="s">
+      <c r="F19" s="40"/>
+      <c r="I19" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="35"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="38"/>
-      <c r="C20" s="46" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44" t="s">
+      <c r="D20" s="56"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B21" s="38"/>
-      <c r="C21" s="40" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="56" t="s">
+      <c r="D21" s="49"/>
+      <c r="E21" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="49" t="s">
+      <c r="F21" s="61"/>
+      <c r="G21" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="59" t="s">
+      <c r="H21" s="58"/>
+      <c r="I21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="60"/>
-      <c r="K21" s="59" t="s">
+      <c r="J21" s="47"/>
+      <c r="K21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="60"/>
-      <c r="S21" s="48">
+      <c r="L21" s="47"/>
+      <c r="S21" s="36">
         <v>2</v>
       </c>
       <c r="T21" t="s">
@@ -2469,149 +2657,149 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B22" s="38"/>
-      <c r="C22" s="37" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="51" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="52"/>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="35"/>
+      <c r="L22" s="40"/>
     </row>
     <row r="23" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="38"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="53" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="44" t="s">
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B24" s="38"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="34" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="34" t="s">
+      <c r="F24" s="40"/>
+      <c r="G24" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="59" t="s">
+      <c r="H24" s="40"/>
+      <c r="I24" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="60"/>
-      <c r="K24" s="59" t="s">
+      <c r="J24" s="47"/>
+      <c r="K24" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="60"/>
-      <c r="M24" s="59" t="s">
+      <c r="L24" s="47"/>
+      <c r="M24" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="N24" s="60"/>
+      <c r="N24" s="47"/>
       <c r="S24" t="s">
         <v>34</v>
       </c>
-      <c r="T24" s="48">
+      <c r="T24" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B25" s="38"/>
-      <c r="E25" s="34" t="s">
+      <c r="B25" s="32"/>
+      <c r="E25" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="I25" s="34" t="s">
+      <c r="F25" s="40"/>
+      <c r="I25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="M25" s="34" t="s">
+      <c r="J25" s="40"/>
+      <c r="M25" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="35"/>
+      <c r="N25" s="40"/>
     </row>
     <row r="26" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="38"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="32"/>
+      <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44" t="s">
+      <c r="H26" s="56"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B27" s="38"/>
-      <c r="C27" s="40" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="40" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="49" t="s">
+      <c r="F27" s="49"/>
+      <c r="G27" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="59" t="s">
+      <c r="H27" s="58"/>
+      <c r="I27" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="59" t="s">
+      <c r="J27" s="47"/>
+      <c r="K27" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="60"/>
-      <c r="M27" s="59" t="s">
+      <c r="L27" s="47"/>
+      <c r="M27" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="60"/>
-      <c r="O27" s="59" t="s">
+      <c r="N27" s="47"/>
+      <c r="O27" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="P27" s="60"/>
-      <c r="S27" s="48">
+      <c r="P27" s="47"/>
+      <c r="S27" s="36">
         <v>4</v>
       </c>
       <c r="T27" t="s">
@@ -2619,152 +2807,212 @@
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B28" s="38"/>
-      <c r="C28" s="37" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="40"/>
       <c r="G28" s="51" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="52"/>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="35"/>
-      <c r="O28" s="34" t="s">
+      <c r="L28" s="40"/>
+      <c r="O28" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="P28" s="35"/>
+      <c r="P28" s="40"/>
     </row>
     <row r="29" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="38"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="53" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="54"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44" t="s">
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="44" t="s">
+      <c r="J29" s="56"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="45"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B30" s="38"/>
-      <c r="C30" s="42" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="40" t="s">
+      <c r="D30" s="49"/>
+      <c r="E30" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="40" t="s">
+      <c r="F30" s="49"/>
+      <c r="G30" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="59" t="s">
+      <c r="H30" s="49"/>
+      <c r="I30" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="60"/>
-      <c r="K30" s="59" t="s">
+      <c r="J30" s="47"/>
+      <c r="K30" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="60"/>
-      <c r="M30" s="59" t="s">
+      <c r="L30" s="47"/>
+      <c r="M30" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="60"/>
-      <c r="O30" s="59" t="s">
+      <c r="N30" s="47"/>
+      <c r="O30" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="59" t="s">
+      <c r="P30" s="47"/>
+      <c r="Q30" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="R30" s="60"/>
+      <c r="R30" s="47"/>
       <c r="S30" t="s">
         <v>34</v>
       </c>
-      <c r="T30" s="48">
+      <c r="T30" s="36">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B31" s="38"/>
-      <c r="E31" s="34" t="s">
+      <c r="B31" s="32"/>
+      <c r="E31" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="I31" s="34" t="s">
+      <c r="F31" s="40"/>
+      <c r="I31" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="M31" s="34" t="s">
+      <c r="J31" s="40"/>
+      <c r="M31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="35"/>
-      <c r="Q31" s="34" t="s">
+      <c r="N31" s="40"/>
+      <c r="Q31" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="R31" s="35"/>
+      <c r="R31" s="40"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B32" s="38"/>
-      <c r="C32" s="37" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="G32" s="34" t="s">
+      <c r="D32" s="40"/>
+      <c r="G32" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="35"/>
-      <c r="K32" s="34" t="s">
+      <c r="H32" s="40"/>
+      <c r="K32" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="35"/>
-      <c r="O32" s="34" t="s">
+      <c r="L32" s="40"/>
+      <c r="O32" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P32" s="35"/>
+      <c r="P32" s="40"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="38"/>
+      <c r="B33" s="32"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="38"/>
-      <c r="C35" s="61" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="62"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="O30:P30"/>
     <mergeCell ref="Q30:R30"/>
@@ -2778,6 +3026,14 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="O32:P32"/>
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="G28:H28"/>
@@ -2786,74 +3042,6 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="M29:N29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
